--- a/data/apiTest.xlsx
+++ b/data/apiTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -54,9 +54,6 @@
     <t>api_01</t>
   </si>
   <si>
-    <t>[正常功能]QQ测试凶吉</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
@@ -69,16 +66,10 @@
     <t>api_02</t>
   </si>
   <si>
-    <t>[异常功能]QQ测试凶吉：appKey为空</t>
-  </si>
-  <si>
     <t>{"key":"","qq":"2312232343"}</t>
   </si>
   <si>
     <t>api_03</t>
-  </si>
-  <si>
-    <t>[异常功能]QQ测试凶吉：QQ号为空</t>
   </si>
   <si>
     <t>{"key":"8dbee1fcd8627fb6699bce7b986adc45","qq":""}</t>
@@ -88,11 +79,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>reason: KEY ERROR!,error_code:int(10001)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>reason: success,error_code:int(0)</t>
+  </si>
+  <si>
+    <t>测试用例1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>reason: KEY ERROR!,error_code:int(10001)</t>
+    <t>测试用例2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -168,6 +174,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -539,16 +554,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="31.75" customWidth="1"/>
     <col min="4" max="4" width="33.625" customWidth="1"/>
-    <col min="5" max="5" width="58.625" customWidth="1"/>
+    <col min="5" max="5" width="59.25" customWidth="1"/>
     <col min="6" max="6" width="8.625" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
@@ -591,21 +607,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -613,24 +629,24 @@
         <v>200</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -638,24 +654,24 @@
         <v>200</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -663,15 +679,43 @@
         <v>200</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
+        <v>200</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" tooltip="http://japi.juhe.cn/qqevaluate/qq"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/apiTest.xlsx
+++ b/data/apiTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19815" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -51,62 +51,347 @@
     <t>msg</t>
   </si>
   <si>
-    <t>api_01</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
-    <t>http://japi.juhe.cn/qqevaluate/qq</t>
-  </si>
-  <si>
-    <t>{"key":"8dbee1fcd8627fb6699bce7b986adc45","qq":"2312232343"}</t>
-  </si>
-  <si>
-    <t>api_02</t>
-  </si>
-  <si>
-    <t>{"key":"","qq":"2312232343"}</t>
-  </si>
-  <si>
-    <t>api_03</t>
-  </si>
-  <si>
-    <t>{"key":"8dbee1fcd8627fb6699bce7b986adc45","qq":""}</t>
-  </si>
-  <si>
-    <t>reason: 错误的请求参数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>reason: KEY ERROR!,error_code:int(10001)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>reason: success,error_code:int(0)</t>
-  </si>
-  <si>
-    <t>测试用例1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>http://cart.test.com/cart/gate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cart.test.com/order/saveOrder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cart.test.com/order/orderDetail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>depending_case</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teardown_case</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://passport.test.com/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+        'dest':'scx_000001',
+        'password':md5(123456),
+        'autoLogin': '0',
+        'validateCode': '',
+        'token': ''
+    }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>success:bool(True)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>success:bool(True)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+        'sId': '1',
+        'pId': </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2220</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+        'proId': '-1',
+        'pcount': '1',
+        'pclassific': '2',
+        'ccode': '-1',
+        'callback': ''
+}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isCan:bool(True)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+        'orderId': </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ttp://order.test.com/order/cancel</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入购物车</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+        'orderString': ${id},
+        '_': timestamp(13)
+    }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+        'payment': '1',
+        'cashAccountPrice':0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+        'jobNum': 'JK0434234230483248392843242'
+    }</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isrun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消订单teardown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>epending_teardowncase</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,6</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,16 +408,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -162,27 +464,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -554,171 +859,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="31.75" customWidth="1"/>
-    <col min="4" max="4" width="33.625" customWidth="1"/>
-    <col min="5" max="5" width="59.25" customWidth="1"/>
-    <col min="6" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="36.75" customWidth="1"/>
-    <col min="11" max="11" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="51.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="59.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:15" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="M2" s="1">
+        <v>200</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:15" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="M3" s="1">
+        <v>200</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="I2">
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="L4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="1">
         <v>200</v>
       </c>
-      <c r="J2" t="s">
-        <v>19</v>
+      <c r="N4" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="5" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="I3">
+      <c r="E5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="K5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="1">
         <v>200</v>
       </c>
-      <c r="J3" t="s">
-        <v>20</v>
+      <c r="N5" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="I4">
-        <v>200</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
+    <row r="6" spans="1:15" ht="54" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="K6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
-        <v>200</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="4"/>
+    <row r="7" spans="1:15" ht="54" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="M7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -730,7 +1140,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -744,7 +1154,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/data/apiTest.xlsx
+++ b/data/apiTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>headers</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>ytype</t>
   </si>
   <si>
     <t>status_code</t>
@@ -366,24 +360,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,6</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n,6</t>
+    <t>n,5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -859,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -870,22 +847,20 @@
     <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="51.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="59.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="36.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="8" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="36.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,10 +874,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -910,211 +885,202 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="4"/>
+      <c r="K2" s="1">
+        <v>200</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="M2" s="1">
-        <v>200</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="M3" s="1">
+      <c r="K3" s="1">
         <v>200</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>21</v>
+      <c r="L3" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
+      <c r="J4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="1">
+        <v>200</v>
+      </c>
       <c r="L4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="1">
-        <v>200</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="1">
+        <v>200</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
-      <c r="K5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="1">
-        <v>200</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>26</v>
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="54" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    <row r="7" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="K6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="M7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>35</v>
+      <c r="K7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/apiTest.xlsx
+++ b/data/apiTest.xlsx
@@ -441,7 +441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,9 +450,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -838,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -885,10 +882,10 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -901,11 +898,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -920,7 +917,7 @@
       <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="3"/>
       <c r="K2" s="1">
         <v>200</v>
       </c>
@@ -932,7 +929,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -945,14 +942,14 @@
       <c r="F3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="3"/>
       <c r="K3" s="1">
         <v>200</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -960,7 +957,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -969,23 +966,23 @@
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="J4" s="5" t="s">
+      <c r="H4" s="3"/>
+      <c r="J4" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K4" s="1">
         <v>200</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -993,7 +990,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1002,84 +999,84 @@
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="1">
         <v>200</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="K7" s="5" t="s">
+      <c r="H7" s="3"/>
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>33</v>
       </c>
     </row>

--- a/data/apiTest.xlsx
+++ b/data/apiTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -328,6 +328,10 @@
   </si>
   <si>
     <t>取消订单teardown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -836,7 +840,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -883,7 +887,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>15</v>
@@ -967,7 +971,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>33</v>
@@ -976,6 +980,9 @@
         <v>36</v>
       </c>
       <c r="H4" s="3"/>
+      <c r="I4" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="J4" s="4" t="s">
         <v>37</v>
       </c>
@@ -1000,7 +1007,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>33</v>
@@ -1010,7 +1017,7 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="1">
@@ -1034,7 +1041,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>33</v>
@@ -1044,7 +1051,7 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
